--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.664768333333334</v>
+        <v>20.408218</v>
       </c>
       <c r="H2">
-        <v>19.994305</v>
+        <v>61.224654</v>
       </c>
       <c r="I2">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="J2">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.237200333333333</v>
+        <v>3.135398666666667</v>
       </c>
       <c r="N2">
-        <v>6.711601</v>
+        <v>9.406196000000001</v>
       </c>
       <c r="O2">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="P2">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="Q2">
-        <v>14.91042193692278</v>
+        <v>63.98789950624268</v>
       </c>
       <c r="R2">
-        <v>134.193797432305</v>
+        <v>575.891095556184</v>
       </c>
       <c r="S2">
-        <v>0.007304963303635285</v>
+        <v>0.0191006062718792</v>
       </c>
       <c r="T2">
-        <v>0.007304963303635285</v>
+        <v>0.0191006062718792</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.664768333333334</v>
+        <v>20.408218</v>
       </c>
       <c r="H3">
-        <v>19.994305</v>
+        <v>61.224654</v>
       </c>
       <c r="I3">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="J3">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>9.461046</v>
       </c>
       <c r="O3">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="P3">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="Q3">
-        <v>21.01855992700333</v>
+        <v>64.361029758676</v>
       </c>
       <c r="R3">
-        <v>189.16703934303</v>
+        <v>579.2492678280839</v>
       </c>
       <c r="S3">
-        <v>0.01029748249992891</v>
+        <v>0.01921198692501598</v>
       </c>
       <c r="T3">
-        <v>0.01029748249992891</v>
+        <v>0.01921198692501598</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.664768333333334</v>
+        <v>20.408218</v>
       </c>
       <c r="H4">
-        <v>19.994305</v>
+        <v>61.224654</v>
       </c>
       <c r="I4">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="J4">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.123499666666667</v>
+        <v>0.4900660000000001</v>
       </c>
       <c r="N4">
-        <v>3.370499</v>
+        <v>1.470198</v>
       </c>
       <c r="O4">
-        <v>0.05629805839539346</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="P4">
-        <v>0.05629805839539345</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="Q4">
-        <v>7.487865000910557</v>
+        <v>10.001373762388</v>
       </c>
       <c r="R4">
-        <v>67.39078500819501</v>
+        <v>90.01236386149201</v>
       </c>
       <c r="S4">
-        <v>0.003668479623556202</v>
+        <v>0.002985444183781016</v>
       </c>
       <c r="T4">
-        <v>0.003668479623556201</v>
+        <v>0.002985444183781016</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.664768333333334</v>
+        <v>20.408218</v>
       </c>
       <c r="H5">
-        <v>19.994305</v>
+        <v>61.224654</v>
       </c>
       <c r="I5">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="J5">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.44189533333333</v>
+        <v>11.417657</v>
       </c>
       <c r="N5">
-        <v>40.325686</v>
+        <v>34.252971</v>
       </c>
       <c r="O5">
-        <v>0.6735672745377762</v>
+        <v>0.62745398637867</v>
       </c>
       <c r="P5">
-        <v>0.6735672745377762</v>
+        <v>0.6274539863786701</v>
       </c>
       <c r="Q5">
-        <v>89.58711835758112</v>
+        <v>233.014033105226</v>
       </c>
       <c r="R5">
-        <v>806.28406521823</v>
+        <v>2097.126297947034</v>
       </c>
       <c r="S5">
-        <v>0.04389081776820749</v>
+        <v>0.06955548371659449</v>
       </c>
       <c r="T5">
-        <v>0.04389081776820749</v>
+        <v>0.06955548371659451</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>141.767772</v>
       </c>
       <c r="I6">
-        <v>0.4620233187619071</v>
+        <v>0.2566851044076959</v>
       </c>
       <c r="J6">
-        <v>0.4620233187619071</v>
+        <v>0.256685104407696</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.237200333333333</v>
+        <v>3.135398666666667</v>
       </c>
       <c r="N6">
-        <v>6.711601</v>
+        <v>9.406196000000001</v>
       </c>
       <c r="O6">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="P6">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="Q6">
-        <v>105.7209689247747</v>
+        <v>148.1661611017013</v>
       </c>
       <c r="R6">
-        <v>951.4887203229719</v>
+        <v>1333.495449915312</v>
       </c>
       <c r="S6">
-        <v>0.05179516727878931</v>
+        <v>0.04422810449877822</v>
       </c>
       <c r="T6">
-        <v>0.05179516727878931</v>
+        <v>0.04422810449877823</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>141.767772</v>
       </c>
       <c r="I7">
-        <v>0.4620233187619071</v>
+        <v>0.2566851044076959</v>
       </c>
       <c r="J7">
-        <v>0.4620233187619071</v>
+        <v>0.256685104407696</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>9.461046</v>
       </c>
       <c r="O7">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="P7">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="Q7">
         <v>149.030156912168</v>
@@ -883,10 +883,10 @@
         <v>1341.271412209512</v>
       </c>
       <c r="S7">
-        <v>0.0730133481120705</v>
+        <v>0.04448601019538054</v>
       </c>
       <c r="T7">
-        <v>0.0730133481120705</v>
+        <v>0.04448601019538054</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>141.767772</v>
       </c>
       <c r="I8">
-        <v>0.4620233187619071</v>
+        <v>0.2566851044076959</v>
       </c>
       <c r="J8">
-        <v>0.4620233187619071</v>
+        <v>0.256685104407696</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.123499666666667</v>
+        <v>0.4900660000000001</v>
       </c>
       <c r="N8">
-        <v>3.370499</v>
+        <v>1.470198</v>
       </c>
       <c r="O8">
-        <v>0.05629805839539346</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="P8">
-        <v>0.05629805839539345</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="Q8">
-        <v>53.09201486202533</v>
+        <v>23.158521650984</v>
       </c>
       <c r="R8">
-        <v>477.828133758228</v>
+        <v>208.426694858856</v>
       </c>
       <c r="S8">
-        <v>0.02601101577969133</v>
+        <v>0.006912897708903232</v>
       </c>
       <c r="T8">
-        <v>0.02601101577969133</v>
+        <v>0.006912897708903233</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>141.767772</v>
       </c>
       <c r="I9">
-        <v>0.4620233187619071</v>
+        <v>0.2566851044076959</v>
       </c>
       <c r="J9">
-        <v>0.4620233187619071</v>
+        <v>0.256685104407696</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.44189533333333</v>
+        <v>11.417657</v>
       </c>
       <c r="N9">
-        <v>40.325686</v>
+        <v>34.252971</v>
       </c>
       <c r="O9">
-        <v>0.6735672745377762</v>
+        <v>0.62745398637867</v>
       </c>
       <c r="P9">
-        <v>0.6735672745377762</v>
+        <v>0.6274539863786701</v>
       </c>
       <c r="Q9">
-        <v>635.2091842879546</v>
+        <v>539.551931450068</v>
       </c>
       <c r="R9">
-        <v>5716.88265859159</v>
+        <v>4855.967383050612</v>
       </c>
       <c r="S9">
-        <v>0.311203787591356</v>
+        <v>0.1610580920046339</v>
       </c>
       <c r="T9">
-        <v>0.311203787591356</v>
+        <v>0.161058092004634</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.37233166666667</v>
+        <v>85.307233</v>
       </c>
       <c r="H10">
-        <v>82.116995</v>
+        <v>255.921699</v>
       </c>
       <c r="I10">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="J10">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.237200333333333</v>
+        <v>3.135398666666667</v>
       </c>
       <c r="N10">
-        <v>6.711601</v>
+        <v>9.406196000000001</v>
       </c>
       <c r="O10">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="P10">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="Q10">
-        <v>61.23738952877723</v>
+        <v>267.4721846052227</v>
       </c>
       <c r="R10">
-        <v>551.136505758995</v>
+        <v>2407.249661447004</v>
       </c>
       <c r="S10">
-        <v>0.03000162471662817</v>
+        <v>0.07984135947962043</v>
       </c>
       <c r="T10">
-        <v>0.03000162471662817</v>
+        <v>0.07984135947962043</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.37233166666667</v>
+        <v>85.307233</v>
       </c>
       <c r="H11">
-        <v>82.116995</v>
+        <v>255.921699</v>
       </c>
       <c r="I11">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="J11">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>9.461046</v>
       </c>
       <c r="O11">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="P11">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="Q11">
-        <v>86.32362967519667</v>
+        <v>269.031885181906</v>
       </c>
       <c r="R11">
-        <v>776.91266707677</v>
+        <v>2421.286966637154</v>
       </c>
       <c r="S11">
-        <v>0.04229195858316906</v>
+        <v>0.08030693542205848</v>
       </c>
       <c r="T11">
-        <v>0.04229195858316906</v>
+        <v>0.08030693542205848</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.37233166666667</v>
+        <v>85.307233</v>
       </c>
       <c r="H12">
-        <v>82.116995</v>
+        <v>255.921699</v>
       </c>
       <c r="I12">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="J12">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.123499666666667</v>
+        <v>0.4900660000000001</v>
       </c>
       <c r="N12">
-        <v>3.370499</v>
+        <v>1.470198</v>
       </c>
       <c r="O12">
-        <v>0.05629805839539346</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="P12">
-        <v>0.05629805839539345</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="Q12">
-        <v>30.75280550338945</v>
+        <v>41.80617444737801</v>
       </c>
       <c r="R12">
-        <v>276.775249530505</v>
+        <v>376.255570026402</v>
       </c>
       <c r="S12">
-        <v>0.01506651633578494</v>
+        <v>0.01247928567767661</v>
       </c>
       <c r="T12">
-        <v>0.01506651633578494</v>
+        <v>0.01247928567767661</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.37233166666667</v>
+        <v>85.307233</v>
       </c>
       <c r="H13">
-        <v>82.116995</v>
+        <v>255.921699</v>
       </c>
       <c r="I13">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="J13">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.44189533333333</v>
+        <v>11.417657</v>
       </c>
       <c r="N13">
-        <v>40.325686</v>
+        <v>34.252971</v>
       </c>
       <c r="O13">
-        <v>0.6735672745377762</v>
+        <v>0.62745398637867</v>
       </c>
       <c r="P13">
-        <v>0.6735672745377762</v>
+        <v>0.6274539863786701</v>
       </c>
       <c r="Q13">
-        <v>367.9360172926189</v>
+        <v>974.0087260130809</v>
       </c>
       <c r="R13">
-        <v>3311.42415563357</v>
+        <v>8766.078534117729</v>
       </c>
       <c r="S13">
-        <v>0.1802604323189931</v>
+        <v>0.2907449271582278</v>
       </c>
       <c r="T13">
-        <v>0.1802604323189931</v>
+        <v>0.2907449271582278</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.98736333333333</v>
+        <v>31.12938966666666</v>
       </c>
       <c r="H14">
-        <v>62.96209</v>
+        <v>93.38816899999999</v>
       </c>
       <c r="I14">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="J14">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.237200333333333</v>
+        <v>3.135398666666667</v>
       </c>
       <c r="N14">
-        <v>6.711601</v>
+        <v>9.406196000000001</v>
       </c>
       <c r="O14">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="P14">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="Q14">
-        <v>46.95293624512112</v>
+        <v>97.60304685501379</v>
       </c>
       <c r="R14">
-        <v>422.57642620609</v>
+        <v>878.4274216951241</v>
       </c>
       <c r="S14">
-        <v>0.02300333804901857</v>
+        <v>0.02913484242019097</v>
       </c>
       <c r="T14">
-        <v>0.02300333804901857</v>
+        <v>0.02913484242019097</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.98736333333333</v>
+        <v>31.12938966666666</v>
       </c>
       <c r="H15">
-        <v>62.96209</v>
+        <v>93.38816899999999</v>
       </c>
       <c r="I15">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="J15">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>9.461046</v>
       </c>
       <c r="O15">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="P15">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="Q15">
-        <v>66.18746997179333</v>
+        <v>98.17219586275266</v>
       </c>
       <c r="R15">
-        <v>595.68722974614</v>
+        <v>883.5497627647738</v>
       </c>
       <c r="S15">
-        <v>0.03242678452359055</v>
+        <v>0.02930473534042646</v>
       </c>
       <c r="T15">
-        <v>0.03242678452359055</v>
+        <v>0.02930473534042646</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.98736333333333</v>
+        <v>31.12938966666666</v>
       </c>
       <c r="H16">
-        <v>62.96209</v>
+        <v>93.38816899999999</v>
       </c>
       <c r="I16">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="J16">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.123499666666667</v>
+        <v>0.4900660000000001</v>
       </c>
       <c r="N16">
-        <v>3.370499</v>
+        <v>1.470198</v>
       </c>
       <c r="O16">
-        <v>0.05629805839539346</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="P16">
-        <v>0.05629805839539345</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="Q16">
-        <v>23.57929570921223</v>
+        <v>15.25545547638467</v>
       </c>
       <c r="R16">
-        <v>212.21366138291</v>
+        <v>137.299099287462</v>
       </c>
       <c r="S16">
-        <v>0.01155204665636098</v>
+        <v>0.004553805497618794</v>
       </c>
       <c r="T16">
-        <v>0.01155204665636098</v>
+        <v>0.004553805497618794</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.98736333333333</v>
+        <v>31.12938966666666</v>
       </c>
       <c r="H17">
-        <v>62.96209</v>
+        <v>93.38816899999999</v>
       </c>
       <c r="I17">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="J17">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.44189533333333</v>
+        <v>11.417657</v>
       </c>
       <c r="N17">
-        <v>40.325686</v>
+        <v>34.252971</v>
       </c>
       <c r="O17">
-        <v>0.6735672745377762</v>
+        <v>0.62745398637867</v>
       </c>
       <c r="P17">
-        <v>0.6735672745377762</v>
+        <v>0.6274539863786701</v>
       </c>
       <c r="Q17">
-        <v>282.1099412493044</v>
+        <v>355.4246938333443</v>
       </c>
       <c r="R17">
-        <v>2538.98947124374</v>
+        <v>3198.822244500099</v>
       </c>
       <c r="S17">
-        <v>0.1382122368592196</v>
+        <v>0.1060954834992138</v>
       </c>
       <c r="T17">
-        <v>0.1382122368592196</v>
+        <v>0.1060954834992138</v>
       </c>
     </row>
   </sheetData>
